--- a/Documentos/resultado.xlsx
+++ b/Documentos/resultado.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\git\TCC_Interpretador\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.fonseca\Documents\TCC_Interpretador\TCC_Interpretador\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB581A7B-20D9-4554-99D4-34DEE9345D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="-20610" yWindow="2430" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -158,14 +159,14 @@
     <t>27.Você indicaria estta fremawork</t>
   </si>
   <si>
-    <t xml:space="preserve">Obs: As questões estão de forma resumida, é indicado que usse como guia a numeração </t>
+    <t xml:space="preserve">Obs. As questões estão de forma resumida, é indicado que use como guia a numeração. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +199,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -283,15 +299,6 @@
       <top/>
       <bottom style="thick">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -311,12 +318,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -324,9 +335,37 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -345,52 +384,67 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -403,8 +457,8 @@
     <cellStyle name="40% - Ênfase6" xfId="11" builtinId="51"/>
     <cellStyle name="60% - Ênfase5" xfId="9" builtinId="48"/>
     <cellStyle name="Ênfase1" xfId="3" builtinId="29"/>
-    <cellStyle name="Incorreto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ruim" xfId="2" builtinId="27"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,7 +475,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -460,7 +514,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -516,6 +569,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2898-4666-ADFE-77AFCADC6137}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -535,6 +593,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2898-4666-ADFE-77AFCADC6137}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -554,6 +617,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2898-4666-ADFE-77AFCADC6137}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -573,6 +641,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2898-4666-ADFE-77AFCADC6137}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -642,9 +715,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -652,11 +723,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Plan1!$B$8:$B$12</c15:sqref>
+                    <c15:sqref>Plan1!$B$13:$B$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Plan1!$B$9:$B$12</c:f>
+              <c:f>Plan1!$B$14:$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -679,11 +750,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Plan1!$C$8:$C$12</c15:sqref>
+                    <c15:sqref>Plan1!$C$13:$C$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Plan1!$C$9:$C$12</c:f>
+              <c:f>Plan1!$C$14:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -705,6 +776,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:categoryFilterExceptions/>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2898-4666-ADFE-77AFCADC6137}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -828,7 +902,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -867,7 +941,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -923,6 +996,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9B60-4F79-AD67-6C65688C4AB2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -942,6 +1020,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9B60-4F79-AD67-6C65688C4AB2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -961,6 +1044,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9B60-4F79-AD67-6C65688C4AB2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1030,9 +1118,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1040,11 +1126,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Plan1!$B$16:$B$19</c15:sqref>
+                    <c15:sqref>Plan1!$B$21:$B$24</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Plan1!$B$17:$B$19</c:f>
+              <c:f>Plan1!$B$22:$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1064,11 +1150,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Plan1!$C$16:$C$19</c15:sqref>
+                    <c15:sqref>Plan1!$C$21:$C$24</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Plan1!$C$17:$C$19</c:f>
+              <c:f>Plan1!$C$22:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1087,6 +1173,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:categoryFilterExceptions/>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9B60-4F79-AD67-6C65688C4AB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1112,7 +1201,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1201,7 +1289,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1246,7 +1334,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1371,6 +1458,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-13E4-4400-9F56-DFF7468DBE03}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1414,10 +1506,15 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-13E4-4400-9F56-DFF7468DBE03}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$E$5:$E$6</c:f>
+              <c:f>Plan1!$B$58:$B$59</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1431,7 +1528,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$F$5:$F$6</c:f>
+              <c:f>Plan1!$C$58:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1444,6 +1541,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-13E4-4400-9F56-DFF7468DBE03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1465,7 +1567,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1537,13 +1638,13 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1582,7 +1683,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10951939914258717"/>
+          <c:y val="2.3995009901652847E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1654,7 +1762,17 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4385756215897484E-2"/>
+          <c:y val="0.22263941330176465"/>
+          <c:w val="0.92925787101132384"/>
+          <c:h val="0.56224977644694096"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -1683,6 +1801,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E285-494E-AE41-CC292F999CD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1707,6 +1830,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E285-494E-AE41-CC292F999CD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1731,6 +1859,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E285-494E-AE41-CC292F999CD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1755,6 +1888,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E285-494E-AE41-CC292F999CD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1806,14 +1944,12 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$M$9:$M$12</c:f>
+              <c:f>Plan1!$H$61:$H$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1833,7 +1969,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$N$9:$N$12</c:f>
+              <c:f>Plan1!$I$61:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1852,6 +1988,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E285-494E-AE41-CC292F999CD8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
@@ -1874,7 +2015,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1953,7 +2093,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1992,7 +2132,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2048,6 +2187,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6CBB-4BE8-93B7-095A2D8C058F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2067,6 +2211,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6CBB-4BE8-93B7-095A2D8C058F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2086,6 +2235,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6CBB-4BE8-93B7-095A2D8C058F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2155,14 +2309,12 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$M$14:$M$16</c:f>
+              <c:f>Plan1!$H$66:$H$68</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2179,7 +2331,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$N$14:$N$16</c:f>
+              <c:f>Plan1!$I$66:$I$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2195,6 +2347,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6CBB-4BE8-93B7-095A2D8C058F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -2218,7 +2375,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5340,20 +5496,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>712685</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47007</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>55335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5370,20 +5532,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>73024</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95826</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>108279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>269876</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>353579</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>130504</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5400,20 +5568,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>87312</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>540060</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>96488</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106797</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5431,19 +5605,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>117021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>290285</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>11958</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5460,20 +5640,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>386729</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>48037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5753,676 +5939,726 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" customWidth="1"/>
-    <col min="13" max="13" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+    <row r="1" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="H8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="H9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="H12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="H20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="H21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="H25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="4"/>
+      <c r="H26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="4"/>
+      <c r="H27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="25"/>
+      <c r="H28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="H29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="27"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="M3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="8"/>
+      <c r="C56" s="21"/>
+      <c r="H56" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="19"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="E4" s="13" t="s">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="I4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="M4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="13"/>
+      <c r="C57" s="19"/>
+      <c r="H57" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3">
+        <v>7</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="H60" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" s="16"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
+      <c r="C61" s="3">
         <v>7</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="H61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="H64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="4">
+      <c r="C65" s="3">
+        <v>5</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="16"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3">
         <v>7</v>
       </c>
-      <c r="M5" s="15" t="s">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="H68" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="4">
+      <c r="C69" s="3">
         <v>6</v>
       </c>
+      <c r="H69" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69" s="16"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="H71" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="H72" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="H73" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4">
+      <c r="C74" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="H74" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4">
+      <c r="I75" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="16" t="s">
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="H76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="4">
+      <c r="C78" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="E7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="I7" s="14" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="4">
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="14" t="s">
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4">
-        <v>7</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="M8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="4">
-        <v>7</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="I11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="M12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="4">
-        <v>4</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="E15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="I15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="4">
-        <v>3</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="E16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4">
-        <v>6</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="M16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="4">
-        <v>7</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4">
-        <v>5</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="I19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="E20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4">
-        <v>6</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="M20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="4">
-        <v>6</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="E23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="I23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="4">
-        <v>7</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4">
-        <v>7</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="M24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="I27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4">
-        <v>7</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="E29" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I31" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="C83" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A26:D28"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
+  <mergeCells count="17">
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B80:C80"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>